--- a/src/main/resources/jxls_templates/warehouseposition_import.xlsx
+++ b/src/main/resources/jxls_templates/warehouseposition_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,24 +14,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>库位数据导入</t>
   </si>
   <si>
-    <t>*库位编码</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库位编码</t>
+    </r>
   </si>
   <si>
-    <t>*库位名称</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库位名称</t>
+    </r>
   </si>
   <si>
-    <t>*所属仓库编码</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属仓库名称</t>
+    </r>
   </si>
   <si>
-    <t>所属库区编码</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属库区名称</t>
+    </r>
   </si>
   <si>
-    <t>所属货架编码</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属货架名称</t>
+    </r>
   </si>
   <si>
     <t>长</t>
@@ -51,15 +141,6 @@
   <si>
     <t>备注</t>
   </si>
-  <si>
-    <t>C01</t>
-  </si>
-  <si>
-    <t>A01</t>
-  </si>
-  <si>
-    <t>B01</t>
-  </si>
 </sst>
 </file>
 
@@ -71,7 +152,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +175,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -554,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,34 +654,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,112 +690,118 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1031,22 +1122,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="27" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="3" width="18.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5555555555556" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.3333333333333" style="2" customWidth="1"/>
+    <col min="2" max="5" width="24.4444444444444" style="2" customWidth="1"/>
     <col min="6" max="11" width="11.5555555555556" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:11">
+    <row r="1" ht="36" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1151,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1077,58 +1167,23 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>101</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
